--- a/data/panel_test_data.xlsx
+++ b/data/panel_test_data.xlsx
@@ -14,42 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>项目</t>
+    <t>转速</t>
   </si>
   <si>
-    <t>数据</t>
+    <t>1</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>10.66</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>20.77</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>30.88</t>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -381,54 +357,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
